--- a/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB59754-7F91-47D1-8AFB-D069E7BBE23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2A956-EA4C-4903-BBD7-5FBC099B31D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>Descrição</t>
+  </si>
+  <si>
+    <t>GR01L</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira de LED</t>
+  </si>
+  <si>
+    <t>PT01L</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>Vela com enfeites produzida em estrutura metálica e mangueira de LED</t>
+  </si>
+  <si>
+    <t>GR03M</t>
+  </si>
+  <si>
+    <t>1,95</t>
+  </si>
+  <si>
+    <t>Papai Noel produzido em estrutura metálica e mangueira luminosa. Aplicação de mangueiras de LED com movimentos</t>
   </si>
 </sst>
 </file>
@@ -537,7 +567,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74A75-20F1-462B-962F-96F5B2D1733F}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,6 +605,93 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>291</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2A956-EA4C-4903-BBD7-5FBC099B31D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78D91A-C0A4-4495-B347-019002EE4602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Papai Noel produzido em estrutura metálica e mangueira luminosa. Aplicação de mangueiras de LED com movimentos</t>
+  </si>
+  <si>
+    <t>Shoping Mueller</t>
+  </si>
+  <si>
+    <t>Contato 1</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -510,6 +516,32 @@
       </c>
       <c r="F2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78D91A-C0A4-4495-B347-019002EE4602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F44E10-A9AC-4DFC-ABF9-D993ED7AFF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4104" yWindow="1104" windowWidth="10296" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
     <sheet name="resultado" sheetId="5" r:id="rId2"/>
     <sheet name="cenarios" sheetId="4" r:id="rId3"/>
-    <sheet name="Centro" sheetId="6" r:id="rId4"/>
+    <sheet name="asdasd" sheetId="7" r:id="rId4"/>
+    <sheet name="Centro" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -136,6 +137,15 @@
   </si>
   <si>
     <t>Contato 1</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Descricao</t>
   </si>
 </sst>
 </file>
@@ -564,7 +574,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -592,14 +602,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74A75-20F1-462B-962F-96F5B2D1733F}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB8BB3D-BC57-4AF1-A018-11F112199726}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +628,83 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74A75-20F1-462B-962F-96F5B2D1733F}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
@@ -662,6 +757,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
@@ -674,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -689,6 +787,9 @@
         <v>96</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
@@ -703,7 +804,7 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -718,6 +819,9 @@
         <v>291</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">

--- a/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
+++ b/orcamentos/Shopping Mueller Joinville 2_Shoping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F44E10-A9AC-4DFC-ABF9-D993ED7AFF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269E26E0-6E9D-4054-8BAC-2504A0DAA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="1104" windowWidth="10296" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Descricao</t>
+  </si>
+  <si>
+    <t>29/01/2023</t>
+  </si>
+  <si>
+    <t>Flávia Gaedke www</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -482,7 +488,7 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -528,7 +534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -552,6 +558,35 @@
       </c>
       <c r="H3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
